--- a/biology/Biologie cellulaire et moléculaire/Chromosome_artificiel_bactérien/Chromosome_artificiel_bactérien.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Chromosome_artificiel_bactérien/Chromosome_artificiel_bactérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chromosome_artificiel_bact%C3%A9rien</t>
+          <t>Chromosome_artificiel_bactérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chromosome bactérien artificiel (CBA ou BAC, pour bacterial artificial chromosome) est un vecteur bactérien conçu pour la cartographie et l'analyse des génomes complexes basé sur le facteur F, épisome naturellement présent dans certaines souches de Escherichia coli.
 La qualité la plus remarquable des BAC, par rapport aux autres systèmes de clonage existants, est la grande stabilité génétique des fragments insérés.
